--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Average Line Size (Bytes)</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>standard deviation (Meters)</t>
+  </si>
+  <si>
+    <t>Helper lines</t>
   </si>
 </sst>
 </file>
@@ -75,6 +78,1461 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Max Fehler 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40014198.854871802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30014198.854871798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25014198.854871798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Standardabweichung 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$2:$A$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6052771.0418897802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5808771.0418897802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ist-Abweichung</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$3:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Ist-Max Abweichung</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$3:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$L$3:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30014198.854871798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30014198.854871798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ist-Grösse</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$3:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>73.691666666666706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.691666666666706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$O$3:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40014198.854871802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Standardabweichung 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8802771.0418897793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3052771.0418897802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1808771.04188978</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Max Fehler 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30014598.854871798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40014198.854871802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20014198.854871798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382349712"/>
+        <c:axId val="382351672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382349712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Median Bytes pro Feldlinie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382351672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382351672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Fehler (Meter)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382349712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,22 +1822,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,38 +1849,54 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2">
-        <f>30014198.8548718</f>
-        <v>30014198.854871798</v>
+        <f>40014198.8548718</f>
+        <v>40014198.854871802</v>
       </c>
       <c r="C2">
         <v>5802771.0418897802</v>
       </c>
-      <c r="H2">
-        <v>73.691666666666706</v>
-      </c>
-      <c r="I2">
-        <v>30014198.854871798</v>
-      </c>
-      <c r="J2">
-        <v>5802771.0418897802</v>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <f>30014598.8548718</f>
+        <v>30014598.854871798</v>
+      </c>
+      <c r="F2">
+        <v>8802771.0418897793</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
@@ -431,19 +1907,84 @@
       <c r="C3">
         <v>6052771.0418897802</v>
       </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <f>40014198.8548718</f>
+        <v>40014198.854871802</v>
+      </c>
+      <c r="F3">
+        <v>3052771.0418897802</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5802771.0418897802</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>30014198.854871798</v>
+      </c>
+      <c r="N3">
+        <v>73.691666666666706</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>30014198.854871798</v>
+      </c>
+      <c r="T3">
+        <v>5802771.0418897802</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>120</v>
       </c>
       <c r="B4">
-        <v>30014198.854871798</v>
+        <v>25014198.854871798</v>
       </c>
       <c r="C4">
         <v>5808771.0418897802</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>20014198.854871798</v>
+      </c>
+      <c r="F4">
+        <v>1808771.04188978</v>
+      </c>
+      <c r="H4">
+        <f>MAX(A2:A4,D2:D4)</f>
+        <v>130</v>
+      </c>
+      <c r="I4">
+        <v>5802771.0418897802</v>
+      </c>
+      <c r="K4">
+        <f>MAX(D2:D4,G2:G4)</f>
+        <v>130</v>
+      </c>
+      <c r="L4">
+        <v>30014198.854871798</v>
+      </c>
+      <c r="N4">
+        <v>73.691666666666706</v>
+      </c>
+      <c r="O4">
+        <f>MAX(B2:C4,E2:F4)</f>
+        <v>40014198.854871802</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -109,9 +109,8 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -123,14 +122,14 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -184,9 +183,8 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -198,14 +196,14 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -259,7 +257,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -312,7 +310,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -330,7 +330,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -381,7 +381,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -583,11 +583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382349712"/>
-        <c:axId val="382351672"/>
+        <c:axId val="307743792"/>
+        <c:axId val="307744184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382349712"/>
+        <c:axId val="307743792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,12 +700,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382351672"/>
+        <c:crossAx val="307744184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382351672"/>
+        <c:axId val="307744184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +818,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382349712"/>
+        <c:crossAx val="307743792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -104,14 +104,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Max Fehler 1</c:v>
+            <c:v>Standardabweichung 1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -122,15 +120,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -156,18 +150,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$4</c:f>
+              <c:f>Tabelle1!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>40014198.854871802</c:v>
+                  <c:v>5902771.0418897802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30014198.854871798</c:v>
+                  <c:v>5802771.0418897802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25014198.854871798</c:v>
+                  <c:v>5802771.0418897802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -178,14 +172,12 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Standardabweichung 1</c:v>
+            <c:v>Standardabweichung 2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -196,267 +188,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5802771.0418897802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6052771.0418897802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5808771.0418897802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Ist-Abweichung</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$I$3:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5802771.0418897802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5802771.0418897802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Ist-Max Abweichung</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="dash"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$K$3:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$L$3:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>30014198.854871798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30014198.854871798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Ist-Grösse</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$N$3:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>73.691666666666706</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.691666666666706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$O$3:$O$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40014198.854871802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Standardabweichung 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -487,7 +223,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8802771.0418897793</c:v>
+                  <c:v>5902771.0418897802</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3052771.0418897802</c:v>
@@ -501,19 +237,17 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Max Fehler 2</c:v>
+            <c:v>Lösung 0 Grenze</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -522,16 +256,70 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$3:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lösung 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="sq">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -539,36 +327,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$4</c:f>
+              <c:f>Tabelle1!$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>73.691666666666706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$2:$E$4</c:f>
+              <c:f>Tabelle1!$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30014598.854871798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40014198.854871802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20014198.854871798</c:v>
+                  <c:v>5802771.0418897802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307743792"/>
-        <c:axId val="307744184"/>
+        <c:axId val="17192128"/>
+        <c:axId val="17192520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307743792"/>
+        <c:axId val="17192128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,62 +383,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>Median Bytes pro Feldlinie</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -700,12 +420,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307744184"/>
+        <c:crossAx val="17192520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307744184"/>
+        <c:axId val="17192520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,62 +445,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-CH"/>
-                  <a:t>Fehler (Meter)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -818,42 +482,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307743792"/>
+        <c:crossAx val="17192128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:dispUnits>
-          <c:builtInUnit val="thousands"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -867,14 +498,6 @@
       <c:legendPos val="r"/>
       <c:legendEntry>
         <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -1504,16 +1127,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1825,7 +1448,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1494,7 @@
         <v>40014198.854871802</v>
       </c>
       <c r="C2">
-        <v>5802771.0418897802</v>
+        <v>5902771.0418897802</v>
       </c>
       <c r="D2">
         <v>80</v>
@@ -1881,7 +1504,7 @@
         <v>30014598.854871798</v>
       </c>
       <c r="F2">
-        <v>8802771.0418897793</v>
+        <v>5902771.0418897802</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -1905,7 +1528,7 @@
         <v>30014198.854871798</v>
       </c>
       <c r="C3">
-        <v>6052771.0418897802</v>
+        <v>5802771.0418897802</v>
       </c>
       <c r="D3">
         <v>96</v>
@@ -1950,7 +1573,7 @@
         <v>25014198.854871798</v>
       </c>
       <c r="C4">
-        <v>5808771.0418897802</v>
+        <v>5802771.0418897802</v>
       </c>
       <c r="D4">
         <v>130</v>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Average Line Size (Bytes)</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Genauigkeit Lösung 0</t>
+  </si>
+  <si>
+    <t>Ist-zustand</t>
   </si>
 </sst>
 </file>
@@ -268,75 +271,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Genauigkeit Lösung 0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$I$3:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5802771.0418897802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5802771.0418897802</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$L$1</c:f>
@@ -398,6 +334,70 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ist-zustand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>858.70933333333301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5802771.0418897802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -406,11 +406,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403189448"/>
-        <c:axId val="403191016"/>
+        <c:axId val="248917016"/>
+        <c:axId val="248915448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403189448"/>
+        <c:axId val="248917016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,12 +532,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403191016"/>
+        <c:crossAx val="248915448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403191016"/>
+        <c:axId val="248915448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +650,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403189448"/>
+        <c:crossAx val="248917016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1609,25 +1609,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1643,8 +1643,11 @@
       <c r="L1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1703,8 +1706,14 @@
       <c r="L3" t="s">
         <v>5</v>
       </c>
+      <c r="N3">
+        <v>5802771.0418897802</v>
+      </c>
+      <c r="O3">
+        <v>858.70933333333301</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -302,7 +302,10 @@
               </a:solidFill>
               <a:ln w="25400" cap="sq">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -349,24 +352,30 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -406,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248917016"/>
-        <c:axId val="248915448"/>
+        <c:axId val="242571008"/>
+        <c:axId val="242572576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248917016"/>
+        <c:axId val="242571008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +446,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -450,16 +459,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" sz="1800"/>
                   <a:t>Median </a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" sz="1800"/>
                   <a:t>Bytes pro Feldlinie</a:t>
                 </a:r>
               </a:p>
@@ -479,7 +488,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -517,7 +526,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -532,12 +541,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248915448"/>
+        <c:crossAx val="242572576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248915448"/>
+        <c:axId val="242572576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +573,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -577,7 +586,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH" sz="1800"/>
                   <a:t>Standardabweichung (Meter)</a:t>
                 </a:r>
               </a:p>
@@ -597,7 +606,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -635,7 +644,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -650,9 +659,42 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248917016"/>
+        <c:crossAx val="242571008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -678,7 +720,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1291,16 +1333,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1611,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -133,7 +133,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -158,10 +158,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$5</c:f>
+              <c:f>Tabelle1!$A$3:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -176,10 +176,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$5</c:f>
+              <c:f>Tabelle1!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5902771.0418897802</c:v>
                 </c:pt>
@@ -209,7 +209,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -234,10 +234,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$3:$D$5</c:f>
+              <c:f>Tabelle1!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -252,10 +252,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$3:$F$5</c:f>
+              <c:f>Tabelle1!$F$3:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>5902771.0418897802</c:v>
                 </c:pt>
@@ -415,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="242571008"/>
-        <c:axId val="242572576"/>
+        <c:axId val="304967336"/>
+        <c:axId val="250477712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="242571008"/>
+        <c:axId val="304967336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,12 +541,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242572576"/>
+        <c:crossAx val="250477712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242572576"/>
+        <c:axId val="250477712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242571008"/>
+        <c:crossAx val="304967336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -415,12 +415,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="304967336"/>
-        <c:axId val="250477712"/>
+        <c:axId val="228079296"/>
+        <c:axId val="228078904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="304967336"/>
+        <c:axId val="228079296"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -541,12 +542,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250477712"/>
+        <c:crossAx val="228078904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="250477712"/>
+        <c:axId val="228078904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +660,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304967336"/>
+        <c:crossAx val="228079296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1653,23 +1654,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>Genauigkeit Lösung 0</t>
   </si>
   <si>
-    <t>Ist-zustand</t>
+    <t>Ist-Zustand</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ist-zustand</c:v>
+                  <c:v>Ist-Zustand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -415,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228079296"/>
-        <c:axId val="228078904"/>
+        <c:axId val="213094464"/>
+        <c:axId val="213092112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228079296"/>
+        <c:axId val="213094464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -542,12 +542,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228078904"/>
+        <c:crossAx val="213092112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228078904"/>
+        <c:axId val="213092112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228079296"/>
+        <c:crossAx val="213094464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1654,23 +1654,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>120</v>
       </c>

--- a/test/vorlage.xlsx
+++ b/test/vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5802771.0418897802</c:v>
+                  <c:v>5802769.2857510503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,7 +400,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5802771.0418897802</c:v>
+                  <c:v>5802769.2857510503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213094464"/>
-        <c:axId val="213092112"/>
+        <c:axId val="407223912"/>
+        <c:axId val="407221168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213094464"/>
+        <c:axId val="407223912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -542,12 +542,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213092112"/>
+        <c:crossAx val="407221168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213092112"/>
+        <c:axId val="407221168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213094464"/>
+        <c:crossAx val="407223912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1655,22 +1655,22 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5802771.0418897802</v>
+        <v>5802769.2857510503</v>
       </c>
       <c r="J3">
         <v>74.187416666666707</v>
@@ -1750,13 +1750,13 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <v>5802771.0418897802</v>
+        <v>5802769.2857510503</v>
       </c>
       <c r="O3">
         <v>858.70933333333301</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>130</v>
       </c>
       <c r="I4">
-        <v>5802771.0418897802</v>
+        <v>5802769.2857510503</v>
       </c>
       <c r="J4">
         <v>74.187416666666707</v>
@@ -1791,7 +1791,7 @@
         <v>30014198.854871798</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
